--- a/data/trans_orig/LAWTONB_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72BAA225-781E-47B6-822F-F7139A2741D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27FE9154-A4C8-44E5-9CAC-EC17B0474D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A4ED82E-6628-4EA6-B6E0-B6C57519EA9D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CADBA0A4-4B0E-40CF-88C6-6D6989253F74}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="710">
   <si>
     <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>73,23%</t>
@@ -94,10 +94,10 @@
     <t>77,0%</t>
   </si>
   <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>Dependencia ligera 6-7</t>
@@ -106,10 +106,10 @@
     <t>11,55%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
   </si>
   <si>
     <t>6,53%</t>
@@ -124,10 +124,10 @@
     <t>9,14%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
   </si>
   <si>
     <t>Dependencia moderada 4-5</t>
@@ -136,7 +136,7 @@
     <t>7,98%</t>
   </si>
   <si>
-    <t>27,97%</t>
+    <t>24,49%</t>
   </si>
   <si>
     <t>11,95%</t>
@@ -154,7 +154,7 @@
     <t>3,82%</t>
   </si>
   <si>
-    <t>19,54%</t>
+    <t>20,65%</t>
   </si>
   <si>
     <t>Dependencia grave 2-3</t>
@@ -175,2032 +175,1999 @@
     <t>1,97%</t>
   </si>
   <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>Dependencia total 0-1</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>Dependencia total 0-1</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>7,34%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
 </sst>
 </file>
@@ -2612,7 +2579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6963BE9B-EE22-47FC-83F2-5797F8187033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBACC203-5528-4157-A0E1-F9099BD12266}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3071,7 +3038,7 @@
         <v>149</v>
       </c>
       <c r="N10" s="7">
-        <v>145868</v>
+        <v>145869</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>59</v>
@@ -3224,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>10712</v>
+        <v>10713</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>86</v>
@@ -3281,10 +3248,10 @@
         <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3293,7 @@
         <v>217</v>
       </c>
       <c r="N15" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>51</v>
@@ -3340,7 +3307,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3352,13 +3319,13 @@
         <v>97867</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>108</v>
@@ -3367,13 +3334,13 @@
         <v>114136</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>205</v>
@@ -3382,13 +3349,13 @@
         <v>212002</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3370,13 @@
         <v>27797</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -3418,13 +3385,13 @@
         <v>30954</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -3433,13 +3400,13 @@
         <v>58750</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3421,13 @@
         <v>7845</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -3469,13 +3436,13 @@
         <v>20994</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -3484,13 +3451,13 @@
         <v>28839</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3472,13 @@
         <v>8608</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3520,13 +3487,13 @@
         <v>4742</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -3535,13 +3502,13 @@
         <v>13350</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3523,13 @@
         <v>3772</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -3571,13 +3538,13 @@
         <v>11854</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3586,13 +3553,13 @@
         <v>15627</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,7 +3615,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3660,13 +3627,13 @@
         <v>82795</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -3675,13 +3642,13 @@
         <v>89386</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>176</v>
@@ -3690,13 +3657,13 @@
         <v>172181</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3678,13 @@
         <v>10155</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -3726,13 +3693,13 @@
         <v>27466</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -3741,13 +3708,13 @@
         <v>37620</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,10 +3732,10 @@
         <v>41</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3777,13 +3744,13 @@
         <v>6238</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -3792,13 +3759,13 @@
         <v>13877</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3780,13 @@
         <v>966</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3828,13 +3795,13 @@
         <v>6192</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -3843,13 +3810,13 @@
         <v>7158</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3831,13 @@
         <v>2816</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -3879,13 +3846,13 @@
         <v>6569</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -3894,13 +3861,13 @@
         <v>9385</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,7 +3923,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3968,13 +3935,13 @@
         <v>108481</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H28" s="7">
         <v>134</v>
@@ -3983,13 +3950,13 @@
         <v>136785</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M28" s="7">
         <v>257</v>
@@ -3998,13 +3965,13 @@
         <v>245267</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +3986,13 @@
         <v>15435</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -4034,13 +4001,13 @@
         <v>28349</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -4049,13 +4016,13 @@
         <v>43784</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4037,13 @@
         <v>5873</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -4085,13 +4052,13 @@
         <v>25526</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -4100,13 +4067,13 @@
         <v>31398</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4088,13 @@
         <v>4101</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -4136,13 +4103,13 @@
         <v>9483</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -4151,13 +4118,13 @@
         <v>13584</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4139,13 @@
         <v>3328</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4187,13 +4154,13 @@
         <v>8634</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -4202,13 +4169,13 @@
         <v>11961</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4243,13 @@
         <v>370257</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>444</v>
@@ -4291,13 +4258,13 @@
         <v>444098</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>828</v>
@@ -4306,13 +4273,13 @@
         <v>814355</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4294,13 @@
         <v>67555</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>101</v>
@@ -4342,13 +4309,13 @@
         <v>106900</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>171</v>
@@ -4357,13 +4324,13 @@
         <v>174455</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4345,13 @@
         <v>27123</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>59</v>
@@ -4393,13 +4360,13 @@
         <v>64151</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
@@ -4408,13 +4375,13 @@
         <v>91274</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4396,13 @@
         <v>20280</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -4444,13 +4411,13 @@
         <v>25525</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -4459,13 +4426,13 @@
         <v>45806</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4447,13 @@
         <v>17250</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H38" s="7">
         <v>33</v>
@@ -4495,13 +4462,13 @@
         <v>36169</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="M38" s="7">
         <v>52</v>
@@ -4510,13 +4477,13 @@
         <v>53418</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,7 +4539,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4593,7 +4560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8398A627-CB96-48D0-9F85-C8124255C4C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0716D25-7307-4B04-AD6B-17B540805503}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4610,7 +4577,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4717,13 +4684,13 @@
         <v>15707</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4732,13 +4699,13 @@
         <v>16335</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -4747,13 +4714,13 @@
         <v>32042</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4735,13 @@
         <v>1931</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4783,13 +4750,13 @@
         <v>970</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4798,13 +4765,13 @@
         <v>2901</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4786,13 @@
         <v>2595</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4834,13 +4801,13 @@
         <v>5585</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4849,13 +4816,13 @@
         <v>8181</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,7 +4843,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4885,13 +4852,13 @@
         <v>1172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4900,13 +4867,13 @@
         <v>1172</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4888,13 @@
         <v>965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4936,13 +4903,13 @@
         <v>1131</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4951,13 +4918,13 @@
         <v>2096</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +4992,13 @@
         <v>89537</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -5040,13 +5007,13 @@
         <v>88516</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
         <v>164</v>
@@ -5055,13 +5022,13 @@
         <v>178053</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,10 +5046,10 @@
         <v>92</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -5091,13 +5058,13 @@
         <v>16148</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -5106,13 +5073,13 @@
         <v>23799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5094,13 @@
         <v>11538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>117</v>
+        <v>322</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -5142,13 +5109,13 @@
         <v>15555</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -5157,13 +5124,13 @@
         <v>27092</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5145,13 @@
         <v>5381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5193,13 +5160,13 @@
         <v>10950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>336</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5208,13 +5175,13 @@
         <v>16332</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5196,13 @@
         <v>4243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -5244,13 +5211,13 @@
         <v>10423</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -5259,13 +5226,13 @@
         <v>14666</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5288,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5333,13 +5300,13 @@
         <v>109222</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -5348,13 +5315,13 @@
         <v>101931</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>194</v>
@@ -5363,13 +5330,13 @@
         <v>211153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5351,13 @@
         <v>8549</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -5399,13 +5366,13 @@
         <v>29207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5414,13 +5381,13 @@
         <v>37756</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5402,13 @@
         <v>8689</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -5450,13 +5417,13 @@
         <v>11868</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>257</v>
+        <v>359</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>365</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -5465,13 +5432,13 @@
         <v>20557</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5453,13 @@
         <v>15418</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -5501,13 +5468,13 @@
         <v>26123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>374</v>
+        <v>70</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -5516,13 +5483,13 @@
         <v>41541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5504,13 @@
         <v>13000</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>379</v>
+        <v>202</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -5552,13 +5519,13 @@
         <v>22291</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -5567,13 +5534,13 @@
         <v>35291</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,7 +5596,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5641,13 +5608,13 @@
         <v>75658</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>81</v>
@@ -5656,13 +5623,13 @@
         <v>88103</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
         <v>148</v>
@@ -5671,13 +5638,13 @@
         <v>163761</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5659,13 @@
         <v>5329</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -5707,13 +5674,13 @@
         <v>10926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>398</v>
+        <v>246</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -5722,13 +5689,13 @@
         <v>16255</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>401</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5710,13 @@
         <v>6614</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>404</v>
+        <v>217</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -5758,13 +5725,13 @@
         <v>10666</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -5773,13 +5740,13 @@
         <v>17280</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5761,13 @@
         <v>8428</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -5809,13 +5776,13 @@
         <v>12926</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -5824,13 +5791,13 @@
         <v>21354</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5812,13 @@
         <v>7570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>420</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5860,13 +5827,13 @@
         <v>18398</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -5875,13 +5842,13 @@
         <v>25967</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,7 +5904,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5949,13 +5916,13 @@
         <v>119557</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="H28" s="7">
         <v>154</v>
@@ -5964,13 +5931,13 @@
         <v>161471</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>356</v>
+        <v>418</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="M28" s="7">
         <v>263</v>
@@ -5979,13 +5946,13 @@
         <v>281028</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +5967,13 @@
         <v>10096</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>120</v>
+        <v>425</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -6015,13 +5982,13 @@
         <v>34915</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -6030,13 +5997,13 @@
         <v>45010</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6018,13 @@
         <v>12517</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -6066,13 +6033,13 @@
         <v>13370</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -6081,13 +6048,13 @@
         <v>25886</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>448</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6069,13 @@
         <v>11288</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -6117,13 +6084,13 @@
         <v>16342</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="M31" s="7">
         <v>25</v>
@@ -6132,13 +6099,13 @@
         <v>27630</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>165</v>
+        <v>445</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>457</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6120,13 @@
         <v>8155</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>45</v>
+        <v>448</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -6168,13 +6135,13 @@
         <v>17653</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -6183,13 +6150,13 @@
         <v>25808</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>465</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,13 +6224,13 @@
         <v>409680</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>468</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>431</v>
@@ -6272,13 +6239,13 @@
         <v>456356</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="M34" s="7">
         <v>802</v>
@@ -6287,13 +6254,13 @@
         <v>866037</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6275,13 @@
         <v>33556</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="H35" s="7">
         <v>85</v>
@@ -6323,13 +6290,13 @@
         <v>92165</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="M35" s="7">
         <v>116</v>
@@ -6338,13 +6305,13 @@
         <v>125721</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6326,13 @@
         <v>41952</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>485</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="H36" s="7">
         <v>53</v>
@@ -6374,13 +6341,13 @@
         <v>57044</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>489</v>
+        <v>69</v>
       </c>
       <c r="M36" s="7">
         <v>92</v>
@@ -6389,13 +6356,13 @@
         <v>98996</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>289</v>
+        <v>476</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6377,13 @@
         <v>40516</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>86</v>
+        <v>446</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>492</v>
+        <v>36</v>
       </c>
       <c r="H37" s="7">
         <v>61</v>
@@ -6425,13 +6392,13 @@
         <v>67514</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
@@ -6440,13 +6407,13 @@
         <v>108030</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,13 +6428,13 @@
         <v>33933</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>328</v>
+        <v>484</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="H38" s="7">
         <v>64</v>
@@ -6476,13 +6443,13 @@
         <v>69896</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="M38" s="7">
         <v>93</v>
@@ -6491,13 +6458,13 @@
         <v>103829</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>223</v>
+        <v>490</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>502</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,7 +6520,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -6574,7 +6541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F83357-90F3-426E-8497-3FFA033EE72C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4336AD2F-4FE3-4544-B678-EBE4E5899063}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6591,7 +6558,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6698,13 +6665,13 @@
         <v>14612</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -6713,13 +6680,13 @@
         <v>13268</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6728,13 +6695,13 @@
         <v>27879</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,13 +6716,13 @@
         <v>794</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6764,13 +6731,13 @@
         <v>2794</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6779,13 +6746,13 @@
         <v>3587</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>518</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,13 +6767,13 @@
         <v>2567</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>454</v>
+        <v>287</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6815,13 +6782,13 @@
         <v>4169</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6830,13 +6797,13 @@
         <v>6736</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>526</v>
+        <v>361</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6851,13 +6818,13 @@
         <v>2078</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6866,13 +6833,13 @@
         <v>2120</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>530</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -6881,13 +6848,13 @@
         <v>4198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>347</v>
+        <v>517</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6902,13 +6869,13 @@
         <v>1638</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6917,13 +6884,13 @@
         <v>1089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6932,13 +6899,13 @@
         <v>2727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7006,13 +6973,13 @@
         <v>94344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -7021,13 +6988,13 @@
         <v>99985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="M10" s="7">
         <v>192</v>
@@ -7036,13 +7003,13 @@
         <v>194329</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7024,13 @@
         <v>2666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -7072,13 +7039,13 @@
         <v>15902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>554</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -7087,13 +7054,13 @@
         <v>18568</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,13 +7075,13 @@
         <v>7220</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>176</v>
+        <v>434</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>559</v>
+        <v>357</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -7123,13 +7090,13 @@
         <v>16672</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>561</v>
+        <v>325</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>200</v>
+        <v>545</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -7138,13 +7105,13 @@
         <v>23892</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>563</v>
+        <v>135</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,13 +7126,13 @@
         <v>6570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>232</v>
+        <v>548</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -7174,13 +7141,13 @@
         <v>8881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>567</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -7189,13 +7156,13 @@
         <v>15450</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>570</v>
+        <v>474</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,13 +7177,13 @@
         <v>4246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>575</v>
+        <v>481</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -7228,10 +7195,10 @@
         <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -7240,13 +7207,13 @@
         <v>12758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7302,7 +7269,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7314,13 +7281,13 @@
         <v>124032</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>562</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="H16" s="7">
         <v>118</v>
@@ -7329,13 +7296,13 @@
         <v>138998</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="M16" s="7">
         <v>247</v>
@@ -7344,13 +7311,13 @@
         <v>263030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,13 +7332,13 @@
         <v>13859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -7380,13 +7347,13 @@
         <v>25711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>140</v>
+        <v>573</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>591</v>
+        <v>473</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -7395,13 +7362,13 @@
         <v>39570</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>499</v>
+        <v>576</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,13 +7383,13 @@
         <v>11831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>595</v>
+        <v>177</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>464</v>
+        <v>578</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -7431,13 +7398,13 @@
         <v>26664</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -7446,13 +7413,13 @@
         <v>38496</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7434,13 @@
         <v>9183</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>605</v>
+        <v>152</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -7482,13 +7449,13 @@
         <v>19706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>446</v>
+        <v>588</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7497,13 +7464,13 @@
         <v>28889</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>610</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,13 +7485,13 @@
         <v>6036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -7533,13 +7500,13 @@
         <v>8083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -7548,13 +7515,13 @@
         <v>14120</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7610,7 +7577,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7622,13 +7589,13 @@
         <v>88887</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -7637,13 +7604,13 @@
         <v>88332</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>621</v>
+        <v>309</v>
       </c>
       <c r="M22" s="7">
         <v>160</v>
@@ -7652,13 +7619,13 @@
         <v>177219</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,13 +7640,13 @@
         <v>11906</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -7688,13 +7655,13 @@
         <v>13666</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -7703,13 +7670,13 @@
         <v>25572</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,13 +7691,13 @@
         <v>5107</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>528</v>
+        <v>617</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -7739,13 +7706,13 @@
         <v>16483</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>636</v>
+        <v>474</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -7754,13 +7721,13 @@
         <v>21590</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7742,13 @@
         <v>7292</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>214</v>
+        <v>623</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -7790,13 +7757,13 @@
         <v>14243</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>643</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>644</v>
+        <v>433</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>645</v>
+        <v>545</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7805,13 +7772,13 @@
         <v>21535</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>648</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7793,13 @@
         <v>1843</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -7841,13 +7808,13 @@
         <v>9872</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>365</v>
+        <v>631</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>405</v>
+        <v>632</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -7856,13 +7823,13 @@
         <v>11715</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,7 +7885,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7930,13 +7897,13 @@
         <v>145110</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>55</v>
+        <v>497</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="H28" s="7">
         <v>135</v>
@@ -7945,13 +7912,13 @@
         <v>159843</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="M28" s="7">
         <v>292</v>
@@ -7960,13 +7927,13 @@
         <v>304954</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +7948,13 @@
         <v>6033</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>662</v>
+        <v>267</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -7996,13 +7963,13 @@
         <v>36085</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>438</v>
+        <v>645</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -8011,13 +7978,13 @@
         <v>42118</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>45</v>
+        <v>472</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>254</v>
+        <v>647</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>666</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,13 +7999,13 @@
         <v>13483</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>143</v>
+        <v>648</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>667</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>668</v>
+        <v>76</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -8047,13 +8014,13 @@
         <v>14302</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>346</v>
+        <v>650</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -8062,13 +8029,13 @@
         <v>27785</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8050,13 @@
         <v>6890</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -8098,13 +8065,13 @@
         <v>19176</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -8113,13 +8080,13 @@
         <v>26066</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,13 +8101,13 @@
         <v>3103</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>444</v>
+        <v>665</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -8149,13 +8116,13 @@
         <v>13374</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>127</v>
+        <v>667</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -8164,13 +8131,13 @@
         <v>16477</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,13 +8205,13 @@
         <v>466985</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="H34" s="7">
         <v>432</v>
@@ -8253,13 +8220,13 @@
         <v>500426</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="M34" s="7">
         <v>920</v>
@@ -8268,13 +8235,13 @@
         <v>967411</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>694</v>
+        <v>641</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,13 +8256,13 @@
         <v>35257</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>488</v>
+        <v>268</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>696</v>
+        <v>615</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="H35" s="7">
         <v>78</v>
@@ -8304,13 +8271,13 @@
         <v>94158</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>699</v>
+        <v>321</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>421</v>
+        <v>681</v>
       </c>
       <c r="M35" s="7">
         <v>118</v>
@@ -8319,13 +8286,13 @@
         <v>129416</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,13 +8307,13 @@
         <v>40208</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="H36" s="7">
         <v>64</v>
@@ -8355,13 +8322,13 @@
         <v>78291</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>119</v>
+        <v>688</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>220</v>
+        <v>689</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="M36" s="7">
         <v>108</v>
@@ -8370,13 +8337,13 @@
         <v>118499</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8391,13 +8358,13 @@
         <v>32012</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>454</v>
+        <v>695</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>711</v>
+        <v>656</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
@@ -8406,13 +8373,13 @@
         <v>64126</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>579</v>
+        <v>696</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="M37" s="7">
         <v>86</v>
@@ -8421,13 +8388,13 @@
         <v>96138</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8442,13 +8409,13 @@
         <v>16866</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>305</v>
+        <v>704</v>
       </c>
       <c r="H38" s="7">
         <v>31</v>
@@ -8457,13 +8424,13 @@
         <v>40929</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>22</v>
+        <v>706</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="M38" s="7">
         <v>50</v>
@@ -8472,13 +8439,13 @@
         <v>57796</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>436</v>
+        <v>709</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>226</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8534,7 +8501,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/LAWTONB_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27FE9154-A4C8-44E5-9CAC-EC17B0474D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{231333D6-3EF4-467D-B151-AFFC9FDFD56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CADBA0A4-4B0E-40CF-88C6-6D6989253F74}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7AE96752-58E1-483A-98A9-657E7E32186A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="712">
   <si>
     <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Autónoma 8</t>
@@ -76,28 +76,28 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>77,0%</t>
   </si>
   <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
   <si>
     <t>Dependencia ligera 6-7</t>
@@ -106,10 +106,10 @@
     <t>11,55%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
   </si>
   <si>
     <t>6,53%</t>
@@ -118,16 +118,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>24,02%</t>
+    <t>22,83%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
   </si>
   <si>
     <t>Dependencia moderada 4-5</t>
@@ -136,2038 +136,2044 @@
     <t>7,98%</t>
   </si>
   <si>
-    <t>24,49%</t>
+    <t>23,88%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>Dependencia grave 2-3</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>Dependencia total 0-1</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>Dependencia grave 2-3</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>Dependencia total 0-1</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
   </si>
   <si>
     <t>59,27%</t>
   </si>
   <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>10,54%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>8,64%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>3,11%</t>
   </si>
 </sst>
 </file>
@@ -2579,7 +2585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBACC203-5528-4157-A0E1-F9099BD12266}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD4A8F1-3128-49CF-BC49-672D05A8D542}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3038,7 +3044,7 @@
         <v>149</v>
       </c>
       <c r="N10" s="7">
-        <v>145869</v>
+        <v>145868</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>59</v>
@@ -3191,7 +3197,7 @@
         <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>10713</v>
+        <v>10712</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>86</v>
@@ -3248,10 +3254,10 @@
         <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3299,7 @@
         <v>217</v>
       </c>
       <c r="N15" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>51</v>
@@ -3307,7 +3313,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3319,13 +3325,13 @@
         <v>97867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>108</v>
@@ -3334,13 +3340,13 @@
         <v>114136</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>205</v>
@@ -3349,13 +3355,13 @@
         <v>212002</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3376,13 @@
         <v>27797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -3385,13 +3391,13 @@
         <v>30954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -3400,13 +3406,13 @@
         <v>58750</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3427,13 @@
         <v>7845</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -3436,13 +3442,13 @@
         <v>20994</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -3451,13 +3457,13 @@
         <v>28839</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3478,13 @@
         <v>8608</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3487,13 +3493,13 @@
         <v>4742</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -3502,13 +3508,13 @@
         <v>13350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3529,13 @@
         <v>3772</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -3538,13 +3544,13 @@
         <v>11854</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3553,13 +3559,13 @@
         <v>15627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,7 +3621,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3627,13 +3633,13 @@
         <v>82795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -3642,13 +3648,13 @@
         <v>89386</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>176</v>
@@ -3657,13 +3663,13 @@
         <v>172181</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3684,13 @@
         <v>10155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -3693,13 +3699,13 @@
         <v>27466</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -3708,13 +3714,13 @@
         <v>37620</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,10 +3738,10 @@
         <v>41</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3744,13 +3750,13 @@
         <v>6238</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -3759,13 +3765,13 @@
         <v>13877</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3786,13 @@
         <v>966</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3795,13 +3801,13 @@
         <v>6192</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -3810,13 +3816,13 @@
         <v>7158</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3837,13 @@
         <v>2816</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -3846,13 +3852,13 @@
         <v>6569</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -3861,13 +3867,13 @@
         <v>9385</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,7 +3929,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3935,13 +3941,13 @@
         <v>108481</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H28" s="7">
         <v>134</v>
@@ -3950,13 +3956,13 @@
         <v>136785</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M28" s="7">
         <v>257</v>
@@ -3965,13 +3971,13 @@
         <v>245267</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3992,13 @@
         <v>15435</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -4001,13 +4007,13 @@
         <v>28349</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -4016,13 +4022,13 @@
         <v>43784</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4043,13 @@
         <v>5873</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -4052,13 +4058,13 @@
         <v>25526</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -4067,13 +4073,13 @@
         <v>31398</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4094,13 @@
         <v>4101</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -4103,13 +4109,13 @@
         <v>9483</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -4118,13 +4124,13 @@
         <v>13584</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4145,13 @@
         <v>3328</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4154,13 +4160,13 @@
         <v>8634</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -4169,13 +4175,13 @@
         <v>11961</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4249,13 @@
         <v>370257</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>444</v>
@@ -4258,13 +4264,13 @@
         <v>444098</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>828</v>
@@ -4273,13 +4279,13 @@
         <v>814355</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4300,13 @@
         <v>67555</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>101</v>
@@ -4309,13 +4315,13 @@
         <v>106900</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>171</v>
@@ -4324,13 +4330,13 @@
         <v>174455</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4351,13 @@
         <v>27123</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>34</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>59</v>
@@ -4360,13 +4366,13 @@
         <v>64151</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
@@ -4375,13 +4381,13 @@
         <v>91274</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4402,13 @@
         <v>20280</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -4411,13 +4417,13 @@
         <v>25525</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -4426,13 +4432,13 @@
         <v>45806</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4453,13 @@
         <v>17250</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H38" s="7">
         <v>33</v>
@@ -4462,13 +4468,13 @@
         <v>36169</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="M38" s="7">
         <v>52</v>
@@ -4477,13 +4483,13 @@
         <v>53418</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,7 +4545,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4560,7 +4566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0716D25-7307-4B04-AD6B-17B540805503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AFDA4B-2B76-4B24-A7FD-BD208A4E5A68}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4577,7 +4583,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4684,13 +4690,13 @@
         <v>15707</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4699,13 +4705,13 @@
         <v>16335</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -4714,13 +4720,13 @@
         <v>32042</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4741,13 @@
         <v>1931</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4750,13 +4756,13 @@
         <v>970</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4765,13 +4771,13 @@
         <v>2901</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4792,13 @@
         <v>2595</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4801,13 +4807,13 @@
         <v>5585</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>121</v>
+        <v>294</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4816,13 +4822,13 @@
         <v>8181</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,7 +4849,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4852,13 +4858,13 @@
         <v>1172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4867,13 +4873,13 @@
         <v>1172</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4894,13 @@
         <v>965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4903,13 +4909,13 @@
         <v>1131</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4918,13 +4924,13 @@
         <v>2096</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4998,13 @@
         <v>89537</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -5007,13 +5013,13 @@
         <v>88516</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
         <v>164</v>
@@ -5022,13 +5028,13 @@
         <v>178053</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,10 +5052,10 @@
         <v>92</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -5058,13 +5064,13 @@
         <v>16148</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -5073,13 +5079,13 @@
         <v>23799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5100,13 @@
         <v>11538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -5109,13 +5115,13 @@
         <v>15555</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -5124,13 +5130,13 @@
         <v>27092</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5151,13 @@
         <v>5381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5160,13 +5166,13 @@
         <v>10950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5175,13 +5181,13 @@
         <v>16332</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5202,13 @@
         <v>4243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>337</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -5211,13 +5217,13 @@
         <v>10423</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>340</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -5226,13 +5232,13 @@
         <v>14666</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,7 +5294,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5300,13 +5306,13 @@
         <v>109222</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -5315,13 +5321,13 @@
         <v>101931</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>194</v>
@@ -5330,13 +5336,13 @@
         <v>211153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5357,13 @@
         <v>8549</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -5366,13 +5372,13 @@
         <v>29207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5381,13 +5387,13 @@
         <v>37756</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5408,13 @@
         <v>8689</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -5417,13 +5423,13 @@
         <v>11868</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>368</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -5432,13 +5438,13 @@
         <v>20557</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5459,13 @@
         <v>15418</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -5468,13 +5474,13 @@
         <v>26123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>378</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -5483,13 +5489,13 @@
         <v>41541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5510,13 @@
         <v>13000</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>202</v>
+        <v>383</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -5519,13 +5525,13 @@
         <v>22291</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -5534,13 +5540,13 @@
         <v>35291</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,7 +5602,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5608,13 +5614,13 @@
         <v>75658</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7">
         <v>81</v>
@@ -5623,13 +5629,13 @@
         <v>88103</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>148</v>
@@ -5638,13 +5644,13 @@
         <v>163761</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5665,13 @@
         <v>5329</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -5674,13 +5680,13 @@
         <v>10926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>246</v>
+        <v>402</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>403</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -5689,13 +5695,13 @@
         <v>16255</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5716,13 @@
         <v>6614</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -5725,13 +5731,13 @@
         <v>10666</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -5740,13 +5746,13 @@
         <v>17280</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>398</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5767,13 @@
         <v>8428</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -5776,13 +5782,13 @@
         <v>12926</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -5791,13 +5797,13 @@
         <v>21354</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>404</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5818,13 @@
         <v>7570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5827,13 +5833,13 @@
         <v>18398</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -5842,13 +5848,13 @@
         <v>25967</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,7 +5910,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5916,13 +5922,13 @@
         <v>119557</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="H28" s="7">
         <v>154</v>
@@ -5931,13 +5937,13 @@
         <v>161471</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="M28" s="7">
         <v>263</v>
@@ -5946,13 +5952,13 @@
         <v>281028</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5973,13 @@
         <v>10096</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -5982,13 +5988,13 @@
         <v>34915</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -5997,13 +6003,13 @@
         <v>45010</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,13 +6024,13 @@
         <v>12517</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>222</v>
+        <v>447</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -6033,13 +6039,13 @@
         <v>13370</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -6048,13 +6054,13 @@
         <v>25886</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>222</v>
+        <v>452</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,13 +6075,13 @@
         <v>11288</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -6084,13 +6090,13 @@
         <v>16342</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>442</v>
+        <v>258</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="M31" s="7">
         <v>25</v>
@@ -6099,13 +6105,13 @@
         <v>27630</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6126,13 @@
         <v>8155</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>448</v>
+        <v>45</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -6135,13 +6141,13 @@
         <v>17653</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -6150,13 +6156,13 @@
         <v>25808</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>280</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,13 +6230,13 @@
         <v>409680</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="H34" s="7">
         <v>431</v>
@@ -6239,13 +6245,13 @@
         <v>456356</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="M34" s="7">
         <v>802</v>
@@ -6254,13 +6260,13 @@
         <v>866037</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6281,13 @@
         <v>33556</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>463</v>
+        <v>132</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="H35" s="7">
         <v>85</v>
@@ -6290,13 +6296,13 @@
         <v>92165</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="M35" s="7">
         <v>116</v>
@@ -6305,13 +6311,13 @@
         <v>125721</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6332,13 @@
         <v>41952</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>245</v>
+        <v>357</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="H36" s="7">
         <v>53</v>
@@ -6341,13 +6347,13 @@
         <v>57044</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>69</v>
+        <v>488</v>
       </c>
       <c r="M36" s="7">
         <v>92</v>
@@ -6356,13 +6362,13 @@
         <v>98996</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6383,13 @@
         <v>40516</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>36</v>
+        <v>493</v>
       </c>
       <c r="H37" s="7">
         <v>61</v>
@@ -6392,13 +6398,13 @@
         <v>67514</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
@@ -6407,13 +6413,13 @@
         <v>108030</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>483</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6434,13 @@
         <v>33933</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="H38" s="7">
         <v>64</v>
@@ -6443,13 +6449,13 @@
         <v>69896</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>488</v>
+        <v>97</v>
       </c>
       <c r="M38" s="7">
         <v>93</v>
@@ -6458,13 +6464,13 @@
         <v>103829</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>336</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,7 +6526,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -6541,7 +6547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4336AD2F-4FE3-4544-B678-EBE4E5899063}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C7E6F4-4AEF-4945-9AEF-2DD766CD3B1A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6558,7 +6564,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6665,13 +6671,13 @@
         <v>14612</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -6680,13 +6686,13 @@
         <v>13268</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6695,13 +6701,13 @@
         <v>27879</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6722,13 @@
         <v>794</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>501</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6731,13 +6737,13 @@
         <v>2794</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6746,13 +6752,13 @@
         <v>3587</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>519</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,13 +6773,13 @@
         <v>2567</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>523</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6782,13 +6788,13 @@
         <v>4169</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>442</v>
+        <v>526</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6797,13 +6803,13 @@
         <v>6736</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>361</v>
+        <v>529</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6824,13 @@
         <v>2078</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6833,13 +6839,13 @@
         <v>2120</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -6848,13 +6854,13 @@
         <v>4198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,13 +6875,13 @@
         <v>1638</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6884,13 +6890,13 @@
         <v>1089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6899,13 +6905,13 @@
         <v>2727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,13 +6979,13 @@
         <v>94344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -6988,28 +6994,28 @@
         <v>99985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="M10" s="7">
         <v>192</v>
       </c>
       <c r="N10" s="7">
-        <v>194329</v>
+        <v>194330</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7024,13 +7030,13 @@
         <v>2666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>537</v>
+        <v>136</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -7039,13 +7045,13 @@
         <v>15902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>361</v>
+        <v>487</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -7054,13 +7060,13 @@
         <v>18568</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>542</v>
+        <v>466</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7081,13 @@
         <v>7220</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>434</v>
+        <v>559</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>357</v>
+        <v>560</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -7090,13 +7096,13 @@
         <v>16672</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -7105,13 +7111,13 @@
         <v>23892</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>135</v>
+        <v>564</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,13 +7132,13 @@
         <v>6570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>550</v>
+        <v>406</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -7141,13 +7147,13 @@
         <v>8881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>568</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -7156,13 +7162,13 @@
         <v>15450</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>474</v>
+        <v>570</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>554</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7183,13 @@
         <v>4246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>555</v>
+        <v>455</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>481</v>
+        <v>573</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -7195,10 +7201,10 @@
         <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>557</v>
+        <v>483</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -7207,13 +7213,13 @@
         <v>12758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>559</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,7 +7261,7 @@
         <v>259</v>
       </c>
       <c r="N15" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>51</v>
@@ -7269,7 +7275,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7281,13 +7287,13 @@
         <v>124032</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="H16" s="7">
         <v>118</v>
@@ -7296,13 +7302,13 @@
         <v>138998</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="M16" s="7">
         <v>247</v>
@@ -7311,13 +7317,13 @@
         <v>263030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,13 +7338,13 @@
         <v>13859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -7347,13 +7353,13 @@
         <v>25711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>589</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>574</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -7362,13 +7368,13 @@
         <v>39570</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>575</v>
+        <v>173</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7383,13 +7389,13 @@
         <v>11831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>177</v>
+        <v>592</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -7398,13 +7404,13 @@
         <v>26664</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>581</v>
+        <v>179</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -7413,13 +7419,13 @@
         <v>38496</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>584</v>
+        <v>185</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,13 +7440,13 @@
         <v>9183</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>587</v>
+        <v>177</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>152</v>
+        <v>600</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -7449,13 +7455,13 @@
         <v>19706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>588</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7464,13 +7470,13 @@
         <v>28889</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>591</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,13 +7491,13 @@
         <v>6036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>501</v>
+        <v>344</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -7500,13 +7506,13 @@
         <v>8083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>555</v>
+        <v>455</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>607</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -7515,13 +7521,13 @@
         <v>14120</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>596</v>
+        <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>597</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>598</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,7 +7583,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7589,13 +7595,13 @@
         <v>88887</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>599</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -7604,13 +7610,13 @@
         <v>88332</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>309</v>
+        <v>612</v>
       </c>
       <c r="M22" s="7">
         <v>160</v>
@@ -7619,13 +7625,13 @@
         <v>177219</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,13 +7646,13 @@
         <v>11906</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -7655,13 +7661,13 @@
         <v>13666</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -7670,13 +7676,13 @@
         <v>25572</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,13 +7697,13 @@
         <v>5107</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -7706,13 +7712,13 @@
         <v>16483</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>474</v>
+        <v>407</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -7721,13 +7727,13 @@
         <v>21590</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7748,13 @@
         <v>7292</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>625</v>
+        <v>517</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -7757,13 +7763,13 @@
         <v>14243</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>634</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>433</v>
+        <v>263</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>545</v>
+        <v>635</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7772,13 +7778,13 @@
         <v>21535</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>406</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7799,13 @@
         <v>1843</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -7808,13 +7814,13 @@
         <v>9872</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>631</v>
+        <v>449</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -7823,13 +7829,13 @@
         <v>11715</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>634</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,7 +7891,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7897,13 +7903,13 @@
         <v>145110</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>497</v>
+        <v>645</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="H28" s="7">
         <v>135</v>
@@ -7912,13 +7918,13 @@
         <v>159843</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="M28" s="7">
         <v>292</v>
@@ -7927,13 +7933,13 @@
         <v>304954</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +7954,13 @@
         <v>6033</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>267</v>
+        <v>653</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>593</v>
+        <v>654</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -7963,13 +7969,13 @@
         <v>36085</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -7978,13 +7984,13 @@
         <v>42118</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>659</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>376</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +8005,13 @@
         <v>13483</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>418</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>76</v>
+        <v>663</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -8014,13 +8020,13 @@
         <v>14302</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>167</v>
+        <v>665</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -8029,13 +8035,13 @@
         <v>27785</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>652</v>
+        <v>270</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,13 +8056,13 @@
         <v>6890</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -8065,13 +8071,13 @@
         <v>19176</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>657</v>
+        <v>142</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -8080,13 +8086,13 @@
         <v>26066</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>660</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>661</v>
+        <v>285</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,13 +8107,13 @@
         <v>3103</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>665</v>
+        <v>460</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -8116,13 +8122,13 @@
         <v>13374</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -8131,13 +8137,13 @@
         <v>16477</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>669</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,13 +8211,13 @@
         <v>466985</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="H34" s="7">
         <v>432</v>
@@ -8220,13 +8226,13 @@
         <v>500426</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="M34" s="7">
         <v>920</v>
@@ -8235,13 +8241,13 @@
         <v>967411</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>641</v>
+        <v>687</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8256,13 +8262,13 @@
         <v>35257</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>268</v>
+        <v>689</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>615</v>
+        <v>223</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="H35" s="7">
         <v>78</v>
@@ -8271,13 +8277,13 @@
         <v>94158</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="M35" s="7">
         <v>118</v>
@@ -8286,13 +8292,13 @@
         <v>129416</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,13 +8313,13 @@
         <v>40208</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>687</v>
+        <v>372</v>
       </c>
       <c r="H36" s="7">
         <v>64</v>
@@ -8322,13 +8328,13 @@
         <v>78291</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>689</v>
+        <v>179</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>690</v>
+        <v>125</v>
       </c>
       <c r="M36" s="7">
         <v>108</v>
@@ -8337,13 +8343,13 @@
         <v>118499</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>692</v>
+        <v>41</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +8364,13 @@
         <v>32012</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>695</v>
+        <v>268</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>656</v>
+        <v>389</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
@@ -8373,13 +8379,13 @@
         <v>64126</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>696</v>
+        <v>445</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="M37" s="7">
         <v>86</v>
@@ -8388,13 +8394,13 @@
         <v>96138</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>700</v>
+        <v>167</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,13 +8415,13 @@
         <v>16866</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="H38" s="7">
         <v>31</v>
@@ -8424,13 +8430,13 @@
         <v>40929</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>706</v>
+        <v>340</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>707</v>
+        <v>537</v>
       </c>
       <c r="M38" s="7">
         <v>50</v>
@@ -8439,13 +8445,13 @@
         <v>57796</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8501,7 +8507,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/LAWTONB_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{231333D6-3EF4-467D-B151-AFFC9FDFD56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BF0A9AD-4B2B-4A71-AAD9-3E0AE9112B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7AE96752-58E1-483A-98A9-657E7E32186A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67E081DF-2AA9-4805-AB90-62EA9F509BD8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="712">
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="721">
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2015 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,28 +76,28 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>77,0%</t>
   </si>
   <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
   </si>
   <si>
     <t>Dependencia ligera 6-7</t>
@@ -106,2074 +106,2101 @@
     <t>11,55%</t>
   </si>
   <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>Dependencia moderada 4-5</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>Dependencia grave 2-3</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>Dependencia total 0-1</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2015 en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2015 en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>Dependencia moderada 4-5</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>Dependencia grave 2-3</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>Dependencia total 0-1</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>10,4%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>8,64%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
     <t>5,26%</t>
   </si>
   <si>
+    <t>7,34%</t>
+  </si>
+  <si>
     <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
   </si>
 </sst>
 </file>
@@ -2585,7 +2612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD4A8F1-3128-49CF-BC49-672D05A8D542}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A410B5-084C-4473-922F-30F96613FB30}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3544,13 +3571,13 @@
         <v>11854</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3559,13 +3586,13 @@
         <v>15627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,7 +3648,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3633,13 +3660,13 @@
         <v>82795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -3648,13 +3675,13 @@
         <v>89386</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>176</v>
@@ -3663,13 +3690,13 @@
         <v>172181</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3711,13 @@
         <v>10155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -3699,13 +3726,13 @@
         <v>27466</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -3714,13 +3741,13 @@
         <v>37620</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,10 +3765,10 @@
         <v>41</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3750,13 +3777,13 @@
         <v>6238</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -3765,13 +3792,13 @@
         <v>13877</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3813,13 @@
         <v>966</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3801,13 +3828,13 @@
         <v>6192</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -3816,13 +3843,13 @@
         <v>7158</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3864,13 @@
         <v>2816</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -3852,13 +3879,13 @@
         <v>6569</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -3867,13 +3894,13 @@
         <v>9385</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,7 +3956,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3941,13 +3968,13 @@
         <v>108481</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>134</v>
@@ -3956,13 +3983,13 @@
         <v>136785</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>257</v>
@@ -3971,13 +3998,13 @@
         <v>245267</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +4019,13 @@
         <v>15435</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -4007,13 +4034,13 @@
         <v>28349</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -4022,13 +4049,13 @@
         <v>43784</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4070,13 @@
         <v>5873</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -4058,13 +4085,13 @@
         <v>25526</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -4073,13 +4100,13 @@
         <v>31398</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4121,13 @@
         <v>4101</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -4109,13 +4136,13 @@
         <v>9483</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -4124,13 +4151,13 @@
         <v>13584</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4172,13 @@
         <v>3328</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4160,13 +4187,13 @@
         <v>8634</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -4175,13 +4202,13 @@
         <v>11961</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4276,13 @@
         <v>370257</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>444</v>
@@ -4264,13 +4291,13 @@
         <v>444098</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>828</v>
@@ -4279,13 +4306,13 @@
         <v>814355</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4327,13 @@
         <v>67555</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>101</v>
@@ -4315,13 +4342,13 @@
         <v>106900</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>171</v>
@@ -4330,13 +4357,13 @@
         <v>174455</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4378,13 @@
         <v>27123</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>59</v>
@@ -4366,13 +4393,13 @@
         <v>64151</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
@@ -4381,13 +4408,13 @@
         <v>91274</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4429,13 @@
         <v>20280</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -4417,13 +4444,13 @@
         <v>25525</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -4432,13 +4459,13 @@
         <v>45806</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4480,13 @@
         <v>17250</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>264</v>
+        <v>169</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>33</v>
@@ -4468,13 +4495,13 @@
         <v>36169</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>52</v>
@@ -4483,13 +4510,13 @@
         <v>53418</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,7 +4572,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4566,7 +4593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AFDA4B-2B76-4B24-A7FD-BD208A4E5A68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BC70DC-E5F6-4093-98C5-6346E94BE761}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4583,7 +4610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4690,13 +4717,13 @@
         <v>15707</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4705,13 +4732,13 @@
         <v>16335</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -4720,13 +4747,13 @@
         <v>32042</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4768,13 @@
         <v>1931</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4756,13 +4783,13 @@
         <v>970</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4771,13 +4798,13 @@
         <v>2901</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4819,13 @@
         <v>2595</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4807,13 +4834,13 @@
         <v>5585</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4822,13 +4849,13 @@
         <v>8181</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,7 +4876,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4858,7 +4885,7 @@
         <v>1172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>25</v>
@@ -4873,13 +4900,13 @@
         <v>1172</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>302</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4921,13 @@
         <v>965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4909,13 +4936,13 @@
         <v>1131</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4924,13 +4951,13 @@
         <v>2096</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5025,13 @@
         <v>89537</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -5013,13 +5040,13 @@
         <v>88516</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M10" s="7">
         <v>164</v>
@@ -5028,13 +5055,13 @@
         <v>178053</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,10 +5079,10 @@
         <v>92</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -5064,13 +5091,13 @@
         <v>16148</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -5079,13 +5106,13 @@
         <v>23799</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5127,13 @@
         <v>11538</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -5115,13 +5142,13 @@
         <v>15555</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -5130,13 +5157,13 @@
         <v>27092</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5178,13 @@
         <v>5381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5166,13 +5193,13 @@
         <v>10950</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5181,13 +5208,13 @@
         <v>16332</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5229,13 @@
         <v>4243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -5217,13 +5244,13 @@
         <v>10423</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>343</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -5360,7 +5387,7 @@
         <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>358</v>
@@ -5390,10 +5417,10 @@
         <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>364</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5435,13 @@
         <v>8689</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -5423,13 +5450,13 @@
         <v>11868</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>367</v>
+        <v>257</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -5438,13 +5465,13 @@
         <v>20557</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5486,13 @@
         <v>15418</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -5474,13 +5501,13 @@
         <v>26123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -5489,13 +5516,13 @@
         <v>41541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5537,13 @@
         <v>13000</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -5525,13 +5552,13 @@
         <v>22291</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -5540,13 +5567,13 @@
         <v>35291</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,7 +5629,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5614,13 +5641,13 @@
         <v>75658</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H22" s="7">
         <v>81</v>
@@ -5632,10 +5659,10 @@
         <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M22" s="7">
         <v>148</v>
@@ -5644,13 +5671,13 @@
         <v>163761</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5692,13 @@
         <v>5329</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -5680,13 +5707,13 @@
         <v>10926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>403</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -5695,13 +5722,13 @@
         <v>16255</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>401</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,13 +5743,13 @@
         <v>6614</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>259</v>
+        <v>404</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -5731,13 +5758,13 @@
         <v>10666</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -5746,13 +5773,13 @@
         <v>17280</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5794,13 @@
         <v>8428</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -5782,13 +5809,13 @@
         <v>12926</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -5797,13 +5824,13 @@
         <v>21354</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>88</v>
+        <v>417</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5845,13 @@
         <v>7570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>269</v>
+        <v>420</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5833,13 +5860,13 @@
         <v>18398</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -5848,13 +5875,13 @@
         <v>25967</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,7 +5937,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5922,13 +5949,13 @@
         <v>119557</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H28" s="7">
         <v>154</v>
@@ -5937,13 +5964,13 @@
         <v>161471</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>433</v>
+        <v>356</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M28" s="7">
         <v>263</v>
@@ -5952,13 +5979,13 @@
         <v>281028</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +6000,13 @@
         <v>10096</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -5988,13 +6015,13 @@
         <v>34915</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -6003,13 +6030,13 @@
         <v>45010</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6051,13 @@
         <v>12517</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>447</v>
+        <v>336</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -6039,13 +6066,13 @@
         <v>13370</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -6054,13 +6081,13 @@
         <v>25886</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6102,13 @@
         <v>11288</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -6090,13 +6117,13 @@
         <v>16342</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>258</v>
+        <v>454</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M31" s="7">
         <v>25</v>
@@ -6105,13 +6132,13 @@
         <v>27630</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>459</v>
+        <v>165</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>358</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,10 +6153,10 @@
         <v>8155</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>45</v>
@@ -6141,13 +6168,13 @@
         <v>17653</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -6156,13 +6183,13 @@
         <v>25808</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,13 +6257,13 @@
         <v>409680</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H34" s="7">
         <v>431</v>
@@ -6245,13 +6272,13 @@
         <v>456356</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M34" s="7">
         <v>802</v>
@@ -6260,13 +6287,13 @@
         <v>866037</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,10 +6308,10 @@
         <v>33556</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>477</v>
@@ -6335,10 +6362,10 @@
         <v>484</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>357</v>
+        <v>485</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H36" s="7">
         <v>53</v>
@@ -6347,13 +6374,13 @@
         <v>57044</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M36" s="7">
         <v>92</v>
@@ -6362,10 +6389,10 @@
         <v>98996</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>490</v>
+        <v>289</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>491</v>
@@ -6383,13 +6410,13 @@
         <v>40516</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="H37" s="7">
         <v>61</v>
@@ -6398,13 +6425,13 @@
         <v>67514</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
@@ -6413,13 +6440,13 @@
         <v>108030</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>498</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>45</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6461,13 @@
         <v>33933</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>499</v>
+        <v>328</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H38" s="7">
         <v>64</v>
@@ -6449,13 +6476,13 @@
         <v>69896</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>501</v>
+        <v>449</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>97</v>
+        <v>500</v>
       </c>
       <c r="M38" s="7">
         <v>93</v>
@@ -6464,13 +6491,13 @@
         <v>103829</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>504</v>
+        <v>223</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,7 +6553,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6547,7 +6574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C7E6F4-4AEF-4945-9AEF-2DD766CD3B1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CA2D26-0282-483E-BABA-68E5CB45CFD2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6564,7 +6591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6671,13 +6698,13 @@
         <v>14612</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -6686,13 +6713,13 @@
         <v>13268</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6701,13 +6728,13 @@
         <v>27879</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6722,13 +6749,13 @@
         <v>794</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>513</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6737,13 +6764,13 @@
         <v>2794</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6752,13 +6779,13 @@
         <v>3587</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,13 +6800,13 @@
         <v>2567</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6788,13 +6815,13 @@
         <v>4169</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6803,13 +6830,13 @@
         <v>6736</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6851,13 @@
         <v>2078</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6839,13 +6866,13 @@
         <v>2120</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>530</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -6854,13 +6881,13 @@
         <v>4198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>534</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,13 +6902,13 @@
         <v>1638</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6890,13 +6917,13 @@
         <v>1089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6905,13 +6932,13 @@
         <v>2727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,13 +7006,13 @@
         <v>94344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -6994,28 +7021,28 @@
         <v>99985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M10" s="7">
         <v>192</v>
       </c>
       <c r="N10" s="7">
-        <v>194330</v>
+        <v>194329</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,13 +7057,13 @@
         <v>2666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>136</v>
+        <v>551</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -7045,13 +7072,13 @@
         <v>15902</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -7060,10 +7087,10 @@
         <v>18568</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>558</v>
@@ -7081,13 +7108,13 @@
         <v>7220</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -7096,13 +7123,13 @@
         <v>16672</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>562</v>
+        <v>200</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -7111,13 +7138,13 @@
         <v>23892</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7159,13 @@
         <v>6570</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -7147,10 +7174,10 @@
         <v>8881</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>569</v>
@@ -7168,7 +7195,7 @@
         <v>571</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,13 +7210,13 @@
         <v>4246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>455</v>
+        <v>573</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -7201,10 +7228,10 @@
         <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>483</v>
+        <v>576</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -7213,13 +7240,13 @@
         <v>12758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>578</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,7 +7288,7 @@
         <v>259</v>
       </c>
       <c r="N15" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>51</v>
@@ -7287,13 +7314,13 @@
         <v>124032</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>577</v>
+        <v>56</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="H16" s="7">
         <v>118</v>
@@ -7302,13 +7329,13 @@
         <v>138998</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="M16" s="7">
         <v>247</v>
@@ -7317,13 +7344,13 @@
         <v>263030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7338,13 +7365,13 @@
         <v>13859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -7353,13 +7380,13 @@
         <v>25711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>588</v>
+        <v>140</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>592</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -7368,13 +7395,13 @@
         <v>39570</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>593</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>590</v>
+        <v>499</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,13 +7416,13 @@
         <v>11831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>593</v>
+        <v>464</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -7404,13 +7431,13 @@
         <v>26664</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>179</v>
+        <v>598</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -7419,13 +7446,13 @@
         <v>38496</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>185</v>
+        <v>601</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,13 +7467,13 @@
         <v>9183</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>177</v>
+        <v>604</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -7455,13 +7482,13 @@
         <v>19706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>345</v>
+        <v>606</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7470,13 +7497,13 @@
         <v>28889</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>608</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7518,13 @@
         <v>6036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>344</v>
+        <v>513</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -7506,13 +7533,13 @@
         <v>8083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>455</v>
+        <v>573</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>607</v>
+        <v>253</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -7521,13 +7548,13 @@
         <v>14120</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>22</v>
+        <v>613</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>614</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>176</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7583,7 +7610,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7595,13 +7622,13 @@
         <v>88887</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>616</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -7610,13 +7637,13 @@
         <v>88332</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="M22" s="7">
         <v>160</v>
@@ -7625,13 +7652,13 @@
         <v>177219</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7673,13 @@
         <v>11906</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -7661,13 +7688,13 @@
         <v>13666</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -7676,13 +7703,13 @@
         <v>25572</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7724,13 @@
         <v>5107</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>626</v>
+        <v>528</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -7712,13 +7739,13 @@
         <v>16483</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>407</v>
+        <v>636</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -7727,13 +7754,13 @@
         <v>21590</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7775,13 @@
         <v>7292</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>632</v>
+        <v>214</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>517</v>
+        <v>642</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -7763,13 +7790,13 @@
         <v>14243</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>263</v>
+        <v>644</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7778,13 +7805,13 @@
         <v>21535</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7826,13 @@
         <v>1843</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -7814,13 +7841,13 @@
         <v>9872</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>365</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>642</v>
+        <v>405</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -7829,13 +7856,13 @@
         <v>11715</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>249</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,7 +7918,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7903,13 +7930,13 @@
         <v>145110</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>645</v>
+        <v>55</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="H28" s="7">
         <v>135</v>
@@ -7918,13 +7945,13 @@
         <v>159843</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="M28" s="7">
         <v>292</v>
@@ -7933,13 +7960,13 @@
         <v>304954</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7981,13 @@
         <v>6033</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>654</v>
+        <v>574</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -7969,13 +7996,13 @@
         <v>36085</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>657</v>
+        <v>438</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -7984,13 +8011,13 @@
         <v>42118</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>659</v>
+        <v>45</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>660</v>
+        <v>254</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +8032,13 @@
         <v>13483</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>662</v>
+        <v>143</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>418</v>
+        <v>667</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -8020,13 +8047,13 @@
         <v>14302</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>633</v>
+        <v>346</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>665</v>
+        <v>170</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -8035,13 +8062,13 @@
         <v>27785</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>270</v>
+        <v>670</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8083,13 @@
         <v>6890</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -8071,13 +8098,13 @@
         <v>19176</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>142</v>
+        <v>675</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -8086,13 +8113,13 @@
         <v>26066</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>678</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>285</v>
+        <v>679</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8134,13 @@
         <v>3103</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -8122,13 +8149,13 @@
         <v>13374</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>677</v>
+        <v>127</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -8137,13 +8164,13 @@
         <v>16477</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>217</v>
+        <v>685</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,13 +8238,13 @@
         <v>466985</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="H34" s="7">
         <v>432</v>
@@ -8226,13 +8253,13 @@
         <v>500426</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="M34" s="7">
         <v>920</v>
@@ -8241,13 +8268,13 @@
         <v>967411</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8289,13 @@
         <v>35257</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>689</v>
+        <v>488</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>223</v>
+        <v>696</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="H35" s="7">
         <v>78</v>
@@ -8277,13 +8304,13 @@
         <v>94158</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>326</v>
+        <v>699</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>692</v>
+        <v>421</v>
       </c>
       <c r="M35" s="7">
         <v>118</v>
@@ -8292,13 +8319,13 @@
         <v>129416</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8340,13 @@
         <v>40208</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>372</v>
+        <v>705</v>
       </c>
       <c r="H36" s="7">
         <v>64</v>
@@ -8328,13 +8355,13 @@
         <v>78291</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>698</v>
+        <v>119</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>125</v>
+        <v>706</v>
       </c>
       <c r="M36" s="7">
         <v>108</v>
@@ -8343,13 +8370,13 @@
         <v>118499</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>41</v>
+        <v>708</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8391,13 @@
         <v>32012</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>268</v>
+        <v>454</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>389</v>
+        <v>711</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
@@ -8379,13 +8406,13 @@
         <v>64126</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>445</v>
+        <v>579</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="M37" s="7">
         <v>86</v>
@@ -8394,13 +8421,13 @@
         <v>96138</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>167</v>
+        <v>715</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8442,13 @@
         <v>16866</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>708</v>
+        <v>305</v>
       </c>
       <c r="H38" s="7">
         <v>31</v>
@@ -8430,13 +8457,13 @@
         <v>40929</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>340</v>
+        <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>537</v>
+        <v>719</v>
       </c>
       <c r="M38" s="7">
         <v>50</v>
@@ -8445,13 +8472,13 @@
         <v>57796</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>711</v>
+        <v>436</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8507,7 +8534,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
